--- a/pred_ohlcv/54_21/2019-10-29 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 CHR ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-470251.2606672801</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-470201.6305672801</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-470143.7824672801</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-474334.1623672801</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-472723.1164672801</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-569847.5465672801</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-569835.21326728</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-592860.84596728</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-519215.93916728</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-686225.19721096</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-686247.44721096</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-898374.86051096</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1111139.88701096</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1110019.90411096</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1086668.87351096</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1089745.58881096</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1084423.58881096</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1087470.96241096</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1082258.20871096</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1096205.94321096</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1090805.84661096</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1065407.21711096</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1065407.21711096</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 CHR ohlcv.xlsx
@@ -1692,7 +1692,7 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-491327.3840672801</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-593860.84596728</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-595974.35246728</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-595961.97336728</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-562625.60376728</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-524496.55296728</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-533688.29056728</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-528780.28126728</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-527908.05736728</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-549770.28686728</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-556614.42736728</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-363125.09336728</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-347028.88671096</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-434793.7585109599</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-409857.4157109599</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-554677.22511096</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-686215.19721096</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-686225.19721096</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-686247.44721096</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-898374.86051096</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-951735.6912109602</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-999659.3717109601</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1082258.20871096</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1096205.94321096</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
